--- a/Proyecto de Contabilidad/EJERCICIO 5.xlsx
+++ b/Proyecto de Contabilidad/EJERCICIO 5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwwan\OneDrive\Escritorio\Proyecto de Contabilidad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417979BF-AF23-41A7-9752-4BD8DDAE9F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE7F421-F684-420E-A440-A701B44E65D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25080" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1272,7 +1272,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1340,17 +1340,6 @@
     <xf numFmtId="9" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1360,6 +1349,15 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1645,8 +1643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C2:C33"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C48" sqref="C45:C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1683,7 +1681,7 @@
       <c r="B2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="53" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="14">
@@ -1698,7 +1696,7 @@
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="53" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="14">
@@ -1713,7 +1711,7 @@
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="53" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="14">
@@ -1728,7 +1726,7 @@
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="53" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="14">
@@ -1742,7 +1740,7 @@
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="53" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="14">
@@ -1756,7 +1754,7 @@
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="53" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="14">
@@ -1770,7 +1768,7 @@
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="53" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="14">
@@ -1784,7 +1782,7 @@
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="53" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="14">
@@ -1798,7 +1796,7 @@
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="53" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="14">
@@ -1812,7 +1810,7 @@
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="53" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="14">
@@ -1826,7 +1824,7 @@
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="58" t="s">
+      <c r="C12" s="53" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="14">
@@ -1840,7 +1838,7 @@
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="58" t="s">
+      <c r="C13" s="53" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="14">
@@ -1854,7 +1852,7 @@
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="53" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="14">
@@ -1868,7 +1866,7 @@
     <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="5"/>
-      <c r="C15" s="58" t="s">
+      <c r="C15" s="53" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="14">
@@ -1882,7 +1880,7 @@
     <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="5"/>
-      <c r="C16" s="58" t="s">
+      <c r="C16" s="53" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="14">
@@ -1896,7 +1894,7 @@
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="5"/>
-      <c r="C17" s="58" t="s">
+      <c r="C17" s="53" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="14">
@@ -1910,7 +1908,7 @@
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="5"/>
-      <c r="C18" s="58" t="s">
+      <c r="C18" s="53" t="s">
         <v>34</v>
       </c>
       <c r="D18" s="14">
@@ -1924,7 +1922,7 @@
     <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="58" t="s">
+      <c r="C19" s="53" t="s">
         <v>24</v>
       </c>
       <c r="D19" s="14">
@@ -1938,7 +1936,7 @@
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="5"/>
-      <c r="C20" s="58" t="s">
+      <c r="C20" s="53" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="14">
@@ -1952,7 +1950,7 @@
     <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="5"/>
-      <c r="C21" s="58" t="s">
+      <c r="C21" s="53" t="s">
         <v>26</v>
       </c>
       <c r="D21" s="14">
@@ -1966,7 +1964,7 @@
     <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="5"/>
-      <c r="C22" s="58" t="s">
+      <c r="C22" s="53" t="s">
         <v>27</v>
       </c>
       <c r="D22" s="14">
@@ -1980,7 +1978,7 @@
     <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="5"/>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="53" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="14"/>
@@ -1994,7 +1992,7 @@
     <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="5"/>
-      <c r="C24" s="58" t="s">
+      <c r="C24" s="53" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="14"/>
@@ -2008,7 +2006,7 @@
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="5"/>
-      <c r="C25" s="58" t="s">
+      <c r="C25" s="53" t="s">
         <v>30</v>
       </c>
       <c r="D25" s="14"/>
@@ -2022,7 +2020,7 @@
     <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="5"/>
-      <c r="C26" s="58" t="s">
+      <c r="C26" s="53" t="s">
         <v>41</v>
       </c>
       <c r="D26" s="14"/>
@@ -2037,7 +2035,7 @@
     <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="5"/>
-      <c r="C27" s="58" t="s">
+      <c r="C27" s="53" t="s">
         <v>31</v>
       </c>
       <c r="D27" s="14"/>
@@ -2052,7 +2050,7 @@
     <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="5"/>
-      <c r="C28" s="58" t="s">
+      <c r="C28" s="53" t="s">
         <v>32</v>
       </c>
       <c r="D28" s="14"/>
@@ -2067,7 +2065,7 @@
     <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="B29" s="5"/>
-      <c r="C29" s="58" t="s">
+      <c r="C29" s="53" t="s">
         <v>33</v>
       </c>
       <c r="D29" s="14"/>
@@ -2082,7 +2080,7 @@
     <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
       <c r="B30" s="5"/>
-      <c r="C30" s="58" t="s">
+      <c r="C30" s="53" t="s">
         <v>35</v>
       </c>
       <c r="D30" s="14"/>
@@ -2097,7 +2095,7 @@
     <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="5"/>
-      <c r="C31" s="58" t="s">
+      <c r="C31" s="53" t="s">
         <v>36</v>
       </c>
       <c r="D31" s="14"/>
@@ -2112,7 +2110,7 @@
     <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="5"/>
-      <c r="C32" s="58" t="s">
+      <c r="C32" s="53" t="s">
         <v>37</v>
       </c>
       <c r="D32" s="14"/>
@@ -2127,7 +2125,7 @@
     <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="B33" s="5"/>
-      <c r="C33" s="58" t="s">
+      <c r="C33" s="53" t="s">
         <v>38</v>
       </c>
       <c r="D33" s="14"/>
@@ -2174,11 +2172,11 @@
       <c r="B36" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="59">
+      <c r="C36" s="54">
         <v>44348</v>
       </c>
-      <c r="D36" s="60"/>
-      <c r="E36" s="61"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="56"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
@@ -3395,10 +3393,10 @@
       <c r="C4" s="36"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="55">
+      <c r="C7" s="59">
         <v>2021</v>
       </c>
-      <c r="D7" s="55"/>
+      <c r="D7" s="59"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
@@ -3537,25 +3535,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="58" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="58" t="s">
         <v>210</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="58" t="s">
         <v>205</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
@@ -3762,25 +3760,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="58" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="58" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="58" t="s">
         <v>205</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
@@ -4470,8 +4468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4490,18 +4488,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="F1" s="53" t="s">
+      <c r="C1" s="58"/>
+      <c r="F1" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="53"/>
-      <c r="J1" s="53" t="s">
+      <c r="G1" s="58"/>
+      <c r="J1" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="K1" s="53"/>
+      <c r="K1" s="58"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -4594,18 +4592,18 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="F7" s="53" t="s">
+      <c r="C7" s="58"/>
+      <c r="F7" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="G7" s="53"/>
-      <c r="J7" s="53" t="s">
+      <c r="G7" s="58"/>
+      <c r="J7" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="K7" s="53"/>
+      <c r="K7" s="58"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -4673,18 +4671,18 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="53"/>
-      <c r="F12" s="53" t="s">
+      <c r="C12" s="58"/>
+      <c r="F12" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="G12" s="53"/>
-      <c r="J12" s="53" t="s">
+      <c r="G12" s="58"/>
+      <c r="J12" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="K12" s="53"/>
+      <c r="K12" s="58"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -4745,18 +4743,18 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="53"/>
-      <c r="F17" s="53" t="s">
+      <c r="C17" s="58"/>
+      <c r="F17" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="G17" s="53"/>
-      <c r="J17" s="53" t="s">
+      <c r="G17" s="58"/>
+      <c r="J17" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="K17" s="53"/>
+      <c r="K17" s="58"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -4817,18 +4815,18 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="C22" s="53"/>
-      <c r="F22" s="53" t="s">
+      <c r="C22" s="58"/>
+      <c r="F22" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="G22" s="53"/>
-      <c r="J22" s="53" t="s">
+      <c r="G22" s="58"/>
+      <c r="J22" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="K22" s="53"/>
+      <c r="K22" s="58"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -4889,18 +4887,18 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="53"/>
-      <c r="F27" s="53" t="s">
+      <c r="C27" s="58"/>
+      <c r="F27" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="G27" s="53"/>
-      <c r="J27" s="53" t="s">
+      <c r="G27" s="58"/>
+      <c r="J27" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="K27" s="53"/>
+      <c r="K27" s="58"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -5024,22 +5022,22 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
-      <c r="B36" s="54" t="s">
+      <c r="B36" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="54"/>
+      <c r="C36" s="57"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
-      <c r="F36" s="54" t="s">
+      <c r="F36" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="G36" s="54"/>
+      <c r="G36" s="57"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
-      <c r="J36" s="54" t="s">
+      <c r="J36" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="K36" s="54"/>
+      <c r="K36" s="57"/>
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
     </row>
@@ -5332,22 +5330,22 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
-      <c r="B49" s="54" t="s">
+      <c r="B49" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="C49" s="54"/>
+      <c r="C49" s="57"/>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
-      <c r="F49" s="54" t="s">
+      <c r="F49" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="G49" s="54"/>
+      <c r="G49" s="57"/>
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
-      <c r="J49" s="54" t="s">
+      <c r="J49" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="K49" s="54"/>
+      <c r="K49" s="57"/>
       <c r="L49" s="9"/>
       <c r="M49" s="9"/>
     </row>
@@ -5471,22 +5469,22 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="9"/>
-      <c r="B55" s="54" t="s">
+      <c r="B55" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="C55" s="54"/>
+      <c r="C55" s="57"/>
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
-      <c r="F55" s="54" t="s">
+      <c r="F55" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="G55" s="54"/>
+      <c r="G55" s="57"/>
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
-      <c r="J55" s="54" t="s">
+      <c r="J55" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="K55" s="54"/>
+      <c r="K55" s="57"/>
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
     </row>
@@ -5628,22 +5626,22 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="9"/>
-      <c r="B61" s="54" t="s">
+      <c r="B61" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="C61" s="54"/>
+      <c r="C61" s="57"/>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
-      <c r="F61" s="54" t="s">
+      <c r="F61" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="G61" s="54"/>
+      <c r="G61" s="57"/>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
-      <c r="J61" s="54" t="s">
+      <c r="J61" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="K61" s="54"/>
+      <c r="K61" s="57"/>
       <c r="L61" s="9"/>
       <c r="M61" s="9"/>
     </row>
@@ -5749,22 +5747,22 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="9"/>
-      <c r="B66" s="54" t="s">
+      <c r="B66" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="C66" s="54"/>
+      <c r="C66" s="57"/>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
-      <c r="F66" s="54" t="s">
+      <c r="F66" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="G66" s="54"/>
+      <c r="G66" s="57"/>
       <c r="H66" s="9"/>
       <c r="I66" s="9"/>
-      <c r="J66" s="54" t="s">
+      <c r="J66" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="K66" s="54"/>
+      <c r="K66" s="57"/>
       <c r="L66" s="9"/>
       <c r="M66" s="9"/>
     </row>
@@ -5865,22 +5863,22 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="9"/>
-      <c r="B71" s="54" t="s">
+      <c r="B71" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="C71" s="54"/>
+      <c r="C71" s="57"/>
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
-      <c r="F71" s="54" t="s">
+      <c r="F71" s="57" t="s">
         <v>126</v>
       </c>
-      <c r="G71" s="54"/>
+      <c r="G71" s="57"/>
       <c r="H71" s="9"/>
       <c r="I71" s="9"/>
-      <c r="J71" s="54" t="s">
+      <c r="J71" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="K71" s="54"/>
+      <c r="K71" s="57"/>
       <c r="L71" s="9"/>
       <c r="M71" s="9"/>
     </row>
@@ -5961,22 +5959,22 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="9"/>
-      <c r="B75" s="54" t="s">
+      <c r="B75" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="C75" s="54"/>
+      <c r="C75" s="57"/>
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
-      <c r="F75" s="54" t="s">
+      <c r="F75" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="G75" s="54"/>
+      <c r="G75" s="57"/>
       <c r="H75" s="9"/>
       <c r="I75" s="9"/>
-      <c r="J75" s="54" t="s">
+      <c r="J75" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="K75" s="54"/>
+      <c r="K75" s="57"/>
       <c r="L75" s="9"/>
       <c r="M75" s="9"/>
     </row>
@@ -6057,8 +6055,8 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="9"/>
-      <c r="B79" s="54"/>
-      <c r="C79" s="54"/>
+      <c r="B79" s="57"/>
+      <c r="C79" s="57"/>
       <c r="D79" s="9"/>
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
@@ -6447,6 +6445,36 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="J61:K61"/>
     <mergeCell ref="B75:C75"/>
     <mergeCell ref="F75:G75"/>
     <mergeCell ref="J75:K75"/>
@@ -6457,36 +6485,6 @@
     <mergeCell ref="B71:C71"/>
     <mergeCell ref="F71:G71"/>
     <mergeCell ref="J71:K71"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="J7:K7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6496,8 +6494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="A22" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7856,25 +7854,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="58" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="58" t="s">
         <v>206</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="58" t="s">
         <v>205</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
@@ -8076,25 +8074,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="58" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="58" t="s">
         <v>207</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="58" t="s">
         <v>205</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -8904,7 +8902,7 @@
       </c>
       <c r="D16" s="15"/>
     </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="6" t="s">
         <v>23</v>
@@ -8913,9 +8911,8 @@
         <v>4560</v>
       </c>
       <c r="D17" s="15"/>
-      <c r="F17" s="57"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
         <v>34</v>
@@ -8925,7 +8922,7 @@
       </c>
       <c r="D18" s="15"/>
     </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="6" t="s">
         <v>24</v>
@@ -8933,9 +8930,9 @@
       <c r="C19" s="14">
         <v>654780</v>
       </c>
-      <c r="D19" s="56"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="15"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="6" t="s">
         <v>25</v>
@@ -8944,9 +8941,8 @@
         <v>5907881.0999999996</v>
       </c>
       <c r="D20" s="15"/>
-      <c r="E20" s="57"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="6" t="s">
         <v>26</v>
@@ -8956,7 +8952,7 @@
       </c>
       <c r="D21" s="15"/>
     </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="6" t="s">
         <v>27</v>
@@ -8966,7 +8962,7 @@
       </c>
       <c r="D22" s="15"/>
     </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="6" t="s">
         <v>131</v>
@@ -8976,7 +8972,7 @@
       </c>
       <c r="D23" s="15"/>
     </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="6" t="s">
         <v>132</v>
@@ -8986,7 +8982,7 @@
       </c>
       <c r="D24" s="15"/>
     </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="6" t="s">
         <v>70</v>
@@ -8996,7 +8992,7 @@
       </c>
       <c r="D25" s="15"/>
     </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="6" t="s">
         <v>133</v>
@@ -9006,7 +9002,7 @@
       </c>
       <c r="D26" s="15"/>
     </row>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="6" t="s">
         <v>72</v>
@@ -9016,7 +9012,7 @@
       </c>
       <c r="D27" s="15"/>
     </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="6" t="s">
         <v>73</v>
@@ -9026,7 +9022,7 @@
       </c>
       <c r="D28" s="15"/>
     </row>
-    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="6" t="s">
         <v>134</v>
@@ -9036,7 +9032,7 @@
       </c>
       <c r="D29" s="15"/>
     </row>
-    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="6" t="s">
         <v>28</v>
@@ -9046,7 +9042,7 @@
         <v>4569720</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
         <v>29</v>
@@ -9056,7 +9052,7 @@
         <v>8975600</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
       <c r="B32" s="6" t="s">
         <v>30</v>
@@ -10096,18 +10092,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="F1" s="53" t="s">
+      <c r="C1" s="58"/>
+      <c r="F1" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="53"/>
-      <c r="J1" s="53" t="s">
+      <c r="G1" s="58"/>
+      <c r="J1" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="K1" s="53"/>
+      <c r="K1" s="58"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -10199,18 +10195,18 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="F7" s="53" t="s">
+      <c r="C7" s="58"/>
+      <c r="F7" s="58" t="s">
         <v>153</v>
       </c>
-      <c r="G7" s="53"/>
-      <c r="J7" s="53" t="s">
+      <c r="G7" s="58"/>
+      <c r="J7" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="K7" s="53"/>
+      <c r="K7" s="58"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -10271,18 +10267,18 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="53"/>
-      <c r="F12" s="53" t="s">
+      <c r="C12" s="58"/>
+      <c r="F12" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="G12" s="53"/>
-      <c r="J12" s="53" t="s">
+      <c r="G12" s="58"/>
+      <c r="J12" s="58" t="s">
         <v>154</v>
       </c>
-      <c r="K12" s="53"/>
+      <c r="K12" s="58"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -10334,18 +10330,18 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="C16" s="53"/>
-      <c r="F16" s="53" t="s">
+      <c r="C16" s="58"/>
+      <c r="F16" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="G16" s="53"/>
-      <c r="J16" s="53" t="s">
+      <c r="G16" s="58"/>
+      <c r="J16" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="K16" s="53"/>
+      <c r="K16" s="58"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -10409,18 +10405,18 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="58" t="s">
         <v>156</v>
       </c>
-      <c r="C20" s="53"/>
-      <c r="F20" s="53" t="s">
+      <c r="C20" s="58"/>
+      <c r="F20" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="G20" s="53"/>
-      <c r="J20" s="53" t="s">
+      <c r="G20" s="58"/>
+      <c r="J20" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="K20" s="53"/>
+      <c r="K20" s="58"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -10481,18 +10477,18 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="53" t="s">
+      <c r="B25" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="C25" s="53"/>
-      <c r="F25" s="53" t="s">
+      <c r="C25" s="58"/>
+      <c r="F25" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="G25" s="53"/>
-      <c r="J25" s="53" t="s">
+      <c r="G25" s="58"/>
+      <c r="J25" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="K25" s="53"/>
+      <c r="K25" s="58"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -10569,18 +10565,18 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="53" t="s">
+      <c r="B31" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="53"/>
-      <c r="F31" s="53" t="s">
+      <c r="C31" s="58"/>
+      <c r="F31" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="G31" s="53"/>
-      <c r="J31" s="53" t="s">
+      <c r="G31" s="58"/>
+      <c r="J31" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="K31" s="53"/>
+      <c r="K31" s="58"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -10702,18 +10698,18 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="53" t="s">
+      <c r="B39" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="C39" s="53"/>
-      <c r="F39" s="53" t="s">
+      <c r="C39" s="58"/>
+      <c r="F39" s="58" t="s">
         <v>125</v>
       </c>
-      <c r="G39" s="53"/>
-      <c r="J39" s="53" t="s">
+      <c r="G39" s="58"/>
+      <c r="J39" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="K39" s="53"/>
+      <c r="K39" s="58"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -10774,18 +10770,18 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B44" s="53" t="s">
+      <c r="B44" s="58" t="s">
         <v>160</v>
       </c>
-      <c r="C44" s="53"/>
-      <c r="F44" s="53" t="s">
+      <c r="C44" s="58"/>
+      <c r="F44" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="G44" s="53"/>
-      <c r="J44" s="53" t="s">
+      <c r="G44" s="58"/>
+      <c r="J44" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="K44" s="53"/>
+      <c r="K44" s="58"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -10860,18 +10856,18 @@
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B49" s="53" t="s">
+      <c r="B49" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="C49" s="53"/>
-      <c r="F49" s="53" t="s">
+      <c r="C49" s="58"/>
+      <c r="F49" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="G49" s="53"/>
-      <c r="J49" s="53" t="s">
+      <c r="G49" s="58"/>
+      <c r="J49" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="K49" s="53"/>
+      <c r="K49" s="58"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
@@ -10934,18 +10930,18 @@
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B54" s="53" t="s">
+      <c r="B54" s="58" t="s">
         <v>164</v>
       </c>
-      <c r="C54" s="53"/>
-      <c r="F54" s="53" t="s">
+      <c r="C54" s="58"/>
+      <c r="F54" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="G54" s="53"/>
-      <c r="J54" s="53" t="s">
+      <c r="G54" s="58"/>
+      <c r="J54" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="K54" s="53"/>
+      <c r="K54" s="58"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
@@ -11048,18 +11044,18 @@
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B60" s="53" t="s">
+      <c r="B60" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="C60" s="53"/>
-      <c r="F60" s="53" t="s">
+      <c r="C60" s="58"/>
+      <c r="F60" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="G60" s="53"/>
-      <c r="J60" s="53" t="s">
+      <c r="G60" s="58"/>
+      <c r="J60" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="K60" s="53"/>
+      <c r="K60" s="58"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B61" s="31"/>
@@ -11124,18 +11120,18 @@
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B65" s="53" t="s">
+      <c r="B65" s="58" t="s">
         <v>165</v>
       </c>
-      <c r="C65" s="53"/>
-      <c r="F65" s="53" t="s">
+      <c r="C65" s="58"/>
+      <c r="F65" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="G65" s="53"/>
-      <c r="J65" s="53" t="s">
+      <c r="G65" s="58"/>
+      <c r="J65" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="K65" s="53"/>
+      <c r="K65" s="58"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
@@ -11207,36 +11203,6 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="J49:K49"/>
     <mergeCell ref="B65:C65"/>
     <mergeCell ref="F65:G65"/>
     <mergeCell ref="J65:K65"/>
@@ -11246,6 +11212,36 @@
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="F60:G60"/>
     <mergeCell ref="J60:K60"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="J7:K7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12703,17 +12699,17 @@
       <c r="A6" s="42" t="s">
         <v>219</v>
       </c>
-      <c r="C6" s="55">
+      <c r="C6" s="59">
         <v>2021</v>
       </c>
-      <c r="D6" s="55"/>
+      <c r="D6" s="59"/>
       <c r="F6" s="42" t="s">
         <v>222</v>
       </c>
-      <c r="H6" s="55">
+      <c r="H6" s="59">
         <v>2021</v>
       </c>
-      <c r="I6" s="55"/>
+      <c r="I6" s="59"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="43" t="s">
